--- a/output/predicted_survey_2019.xlsx
+++ b/output/predicted_survey_2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuema\Desktop\mental_health_indicators\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuema\Desktop\GitHub_Repos\mental-healthcare-predictors\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E35DC52-C90E-491F-A134-BC0082C5852B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E38F46-A4AE-4431-9758-AFEA2FA1F219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -729,7 +729,7 @@
   <dimension ref="A1:AF296"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AF3" sqref="AF3"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,6 +763,8 @@
     <col min="28" max="28" width="16.6328125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
